--- a/biology/Botanique/Ananas_bracteatus/Ananas_bracteatus.xlsx
+++ b/biology/Botanique/Ananas_bracteatus/Ananas_bracteatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ananas bracteatus, ou de son nom vernaculaire Ananas requin, est une espèce de plantes à fleurs de la famille des Bromeliaceae originaire d'Amérique du Sud.  C'est une plante herbacée pérenne à l'état spontané qui s'est acclimatée à de nombreuses régions du globe.
 </t>
@@ -511,12 +523,14 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ananas fritzmuelleri Camargo[1]
-Ananassa bracteata Lindl.[1] ;
-Ananassa sagenaria D.Dietr.[1].
-Autres noms vernaculaires à la Réunion : « ananas marron », « ananas diable », « ananas sauvage » [2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Ananas fritzmuelleri Camargo
+Ananassa bracteata Lindl. ;
+Ananassa sagenaria D.Dietr..
+Autres noms vernaculaires à la Réunion : « ananas marron », « ananas diable », « ananas sauvage » .</t>
         </is>
       </c>
     </row>
@@ -544,9 +558,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce se rencontre à l'état naturel en Argentine, Bolivie, Brésil, Équateur, Paraguay[3] mais aussi ailleurs dans le monde notamment à la Réunion[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce se rencontre à l'état naturel en Argentine, Bolivie, Brésil, Équateur, Paraguay mais aussi ailleurs dans le monde notamment à la Réunion.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est hémicryptophyte[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est hémicryptophyte.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Utilisation par l'Homme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le fruit a une chair de couleur rose. Il est très peu consommé et a la réputation d'être un puissant laxatif, du fait de son acidité. On l’utilise en ornementation pour sa belle couleur rouge[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit a une chair de couleur rose. Il est très peu consommé et a la réputation d'être un puissant laxatif, du fait de son acidité. On l’utilise en ornementation pour sa belle couleur rouge.
 </t>
         </is>
       </c>
